--- a/data/trans_media/IQ09_D-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ09_D-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 15,06</t>
+          <t>1,15; 15,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,38; 10,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,36</t>
+          <t>0,0; 0,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 10,55</t>
+          <t>0,58; 10,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,29</t>
+          <t>1,17; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,53</t>
+          <t>0,36; 3,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,17</t>
+          <t>0,55; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,64</t>
+          <t>0,46; 5,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,1</t>
+          <t>1,49; 8,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,45</t>
+          <t>0,84; 4,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,33</t>
+          <t>0,46; 5,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,53</t>
+          <t>0,82; 5,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,64</t>
+          <t>1,85; 5,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,23</t>
+          <t>0,88; 3,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,76</t>
+          <t>0,88; 3,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,25</t>
+          <t>1,02; 4,37</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,7</t>
+          <t>1,4; 12,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,01</t>
+          <t>0,14; 2,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 16,76</t>
+          <t>3,13; 17,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,53</t>
+          <t>0,5; 4,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,62</t>
+          <t>0,83; 8,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,91</t>
+          <t>0,89; 10,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,79</t>
+          <t>0,58; 2,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,72</t>
+          <t>1,62; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,42</t>
+          <t>0,31; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,05</t>
+          <t>0,5; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,31</t>
+          <t>1,1; 5,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,04</t>
+          <t>1,5; 7,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,84</t>
+          <t>1,28; 4,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,82</t>
+          <t>0,57; 3,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,0</t>
+          <t>0,86; 4,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,17</t>
+          <t>2,06; 5,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,86</t>
+          <t>0,93; 2,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,67</t>
+          <t>0,68; 2,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,06</t>
+          <t>1,28; 3,99</t>
         </is>
       </c>
     </row>
